--- a/question summary&proper nouns.xlsx
+++ b/question summary&proper nouns.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/work/cargoTrawind/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alf/Desktop/Trawind proj local/TrawindShippingCostForecast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6819F671-23B4-A048-9815-7A42192A2B1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C301D682-518F-6744-923A-2B34338EAE10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="2680" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{7A9FF9E2-8E36-7A49-BD90-F4EB47506221}"/>
+    <workbookView xWindow="4240" yWindow="2680" windowWidth="27640" windowHeight="16940" xr2:uid="{7A9FF9E2-8E36-7A49-BD90-F4EB47506221}"/>
   </bookViews>
   <sheets>
     <sheet name="问题总结" sheetId="2" r:id="rId1"/>
     <sheet name="专有名词" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>公司租船报价</t>
   </si>
@@ -70,6 +70,27 @@
   </si>
   <si>
     <t>预估价格（指导价格）</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>提问者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le </t>
+  </si>
+  <si>
+    <t>我们是否有www.shippingdata.cn （中国航运数据库） 的会员？</t>
+  </si>
+  <si>
+    <t>神海指数中”北“是哪儿？目的地中哪个离镇海比较近？</t>
+  </si>
+  <si>
+    <t>神海指数中2017年和2018年为什么张家港的船型从2 - 3wt 变成了 2-4wt</t>
+  </si>
+  <si>
+    <t>螺纹钢和钢坯价格对运价影响有多大</t>
   </si>
 </sst>
 </file>
@@ -111,10 +132,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -431,54 +458,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E0B888-6486-EE45-A6AC-B34BB98E147D}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.83203125" customWidth="1"/>
-    <col min="2" max="2" width="128" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="66" style="4" customWidth="1"/>
+    <col min="5" max="5" width="54.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" ht="126" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>43444</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>43444</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>43444</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>43444</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -491,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBE94BB-5CFE-0C48-982C-F712A3DC614E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/question summary&proper nouns.xlsx
+++ b/question summary&proper nouns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alf/Desktop/Trawind proj local/TrawindShippingCostForecast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C301D682-518F-6744-923A-2B34338EAE10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B5C1DB-912C-1248-8266-37A4C636AC94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4240" yWindow="2680" windowWidth="27640" windowHeight="16940" xr2:uid="{7A9FF9E2-8E36-7A49-BD90-F4EB47506221}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>公司租船报价</t>
   </si>
@@ -90,7 +90,13 @@
     <t>神海指数中2017年和2018年为什么张家港的船型从2 - 3wt 变成了 2-4wt</t>
   </si>
   <si>
-    <t>螺纹钢和钢坯价格对运价影响有多大</t>
+    <t>螺纹钢和钢坯价格对运价影响有多大? 尤其是广州的螺纹钢和钢坯价格</t>
+  </si>
+  <si>
+    <t>动力煤是指的货物为动力煤，还是作为船的燃料？</t>
+  </si>
+  <si>
+    <t>铁矿石的港口库存情况（bloomberg上数据） 是否能对船价产生比较大的影响？</t>
   </si>
 </sst>
 </file>
@@ -458,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E0B888-6486-EE45-A6AC-B34BB98E147D}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,7 +555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43444</v>
       </c>
@@ -558,6 +564,28 @@
       </c>
       <c r="C12" s="4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>43444</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>43444</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/question summary&proper nouns.xlsx
+++ b/question summary&proper nouns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alf/Desktop/Trawind proj local/TrawindShippingCostForecast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B5C1DB-912C-1248-8266-37A4C636AC94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EA4844-7653-8F49-AD18-10161B539877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="2680" windowWidth="27640" windowHeight="16940" xr2:uid="{7A9FF9E2-8E36-7A49-BD90-F4EB47506221}"/>
+    <workbookView xWindow="4220" yWindow="2680" windowWidth="27640" windowHeight="16940" xr2:uid="{7A9FF9E2-8E36-7A49-BD90-F4EB47506221}"/>
   </bookViews>
   <sheets>
     <sheet name="问题总结" sheetId="2" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D6" sqref="D6:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/question summary&proper nouns.xlsx
+++ b/question summary&proper nouns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alf/Desktop/Trawind proj local/TrawindShippingCostForecast/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/work/cargoTrawind/TrawindShippingCostForecast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EA4844-7653-8F49-AD18-10161B539877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681CAB17-404C-F54B-B763-2192DCC22C95}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="2680" windowWidth="27640" windowHeight="16940" xr2:uid="{7A9FF9E2-8E36-7A49-BD90-F4EB47506221}"/>
+    <workbookView xWindow="16960" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{7A9FF9E2-8E36-7A49-BD90-F4EB47506221}"/>
   </bookViews>
   <sheets>
     <sheet name="问题总结" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>公司租船报价</t>
   </si>
@@ -97,13 +97,43 @@
   </si>
   <si>
     <t>铁矿石的港口库存情况（bloomberg上数据） 是否能对船价产生比较大的影响？</t>
+  </si>
+  <si>
+    <t>Limbo</t>
+  </si>
+  <si>
+    <t>港口吞吐量是什么意思？</t>
+  </si>
+  <si>
+    <t>刘小恺 12-13 16:02:49
+宁波离镇海近
+刘小恺 12-13 16:02:56
+北指河北</t>
+  </si>
+  <si>
+    <t>都是2-3wt，之前title填错了</t>
+  </si>
+  <si>
+    <t>这个业务也无法给出确定的影响说明只是知道有一定影响，这块也是期望大数据能够给提供的答案。</t>
+  </si>
+  <si>
+    <t>动力煤是一种货物的名称，一般使用在热电厂用来发电，它和钢材类似都是用散货船运输。</t>
+  </si>
+  <si>
+    <t>会有影响，但是影响多大不好说</t>
+  </si>
+  <si>
+    <t>是指一段时期内经水运输出、输入港区并经过装卸作业的货物总量。</t>
+  </si>
+  <si>
+    <t>业务没有中国航运数据库的会员，并且暂时不推荐</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,6 +146,13 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -148,6 +185,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -464,11 +504,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E0B888-6486-EE45-A6AC-B34BB98E147D}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -532,8 +570,11 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43444</v>
       </c>
@@ -542,6 +583,9 @@
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -554,6 +598,9 @@
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -565,6 +612,9 @@
       <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -576,6 +626,9 @@
       <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -586,6 +639,23 @@
       </c>
       <c r="C16" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>43444</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/question summary&proper nouns.xlsx
+++ b/question summary&proper nouns.xlsx
@@ -1,52 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alf/Desktop/Trawind proj local/TrawindShippingCostForecast/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EA4844-7653-8F49-AD18-10161B539877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="2680" windowWidth="27640" windowHeight="16940" xr2:uid="{7A9FF9E2-8E36-7A49-BD90-F4EB47506221}"/>
+    <workbookView windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="问题总结" sheetId="2" r:id="rId1"/>
     <sheet name="专有名词" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
-  <si>
-    <t>公司租船报价</t>
-  </si>
-  <si>
-    <t>租船实际价格</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>提问者</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>解答</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>公司在竞标时能否知道使用的船型</t>
   </si>
   <si>
+    <t>竞标前确认船型</t>
+  </si>
+  <si>
     <t>神海的指数是当天出的吗</t>
   </si>
   <si>
-    <t>竞标前确认船型</t>
-  </si>
-  <si>
     <t>指数每晚五点后，出的是当天</t>
   </si>
   <si>
-    <t>成交价格</t>
+    <t>目前公司对船成本价格是怎样计算的</t>
   </si>
   <si>
     <t>指导价格 = （要素预测价格 + 上海船价）/ 2
@@ -54,79 +52,443 @@
 要素预测价格 = 42 * [ 1+（去年同天价格-去年6月9日价格）/ 去年6月9日价格 ]</t>
   </si>
   <si>
-    <t>目前公司对船成本价格是怎样计算的</t>
-  </si>
-  <si>
-    <t>问题</t>
-  </si>
-  <si>
-    <t>解答</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>关于这个公式是我和石月月根据陈经理给的文档和数据推测出来的，和公司业务人员确认但是没有给回复，陈经理说这个问题他亲自和您沟通</t>
   </si>
   <si>
+    <t xml:space="preserve">Le </t>
+  </si>
+  <si>
+    <t>我们是否有www.shippingdata.cn （中国航运数据库） 的会员？</t>
+  </si>
+  <si>
+    <t>业务没有中国航运数据库的会员</t>
+  </si>
+  <si>
+    <t>神海指数中”北“是哪儿？目的地中哪个离镇海比较近？</t>
+  </si>
+  <si>
+    <t>刘小恺 12-13 16:02:49
+宁波离镇海近
+刘小恺 12-13 16:02:56
+北指河北</t>
+  </si>
+  <si>
+    <t>神海指数中2017年和2018年为什么张家港的船型从2 - 3wt 变成了 2-4wt</t>
+  </si>
+  <si>
+    <t>从业务方面了解不到原因  有可能是神海放大了港口的船舶宽度</t>
+  </si>
+  <si>
+    <t>螺纹钢和钢坯价格对运价影响有多大? 尤其是广州的螺纹钢和钢坯价格</t>
+  </si>
+  <si>
+    <t>这个业务也无法给出确定的影响说明只是知道有一定影响，这块也是期望大数据能够给提供的答案。</t>
+  </si>
+  <si>
+    <t>动力煤是指的货物为动力煤，还是作为船的燃料？</t>
+  </si>
+  <si>
+    <t>动力煤是一种货物的名称，一般使用在热电厂用来发电，它和钢材类似都是用散货船运输。</t>
+  </si>
+  <si>
+    <t>铁矿石的港口库存情况（bloomberg上数据） 是否能对船价产生比较大的影响？</t>
+  </si>
+  <si>
+    <t>会有影响，但是影响多大不好说</t>
+  </si>
+  <si>
+    <t>Limbo</t>
+  </si>
+  <si>
+    <t>港口吞吐量是什么意思？</t>
+  </si>
+  <si>
+    <t>是指一段时期内经水运输出、输入港区并经过装卸作业的货物总量。</t>
+  </si>
+  <si>
     <t>预估价格（指导价格）</t>
   </si>
   <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>提问者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le </t>
-  </si>
-  <si>
-    <t>我们是否有www.shippingdata.cn （中国航运数据库） 的会员？</t>
-  </si>
-  <si>
-    <t>神海指数中”北“是哪儿？目的地中哪个离镇海比较近？</t>
-  </si>
-  <si>
-    <t>神海指数中2017年和2018年为什么张家港的船型从2 - 3wt 变成了 2-4wt</t>
-  </si>
-  <si>
-    <t>螺纹钢和钢坯价格对运价影响有多大? 尤其是广州的螺纹钢和钢坯价格</t>
-  </si>
-  <si>
-    <t>动力煤是指的货物为动力煤，还是作为船的燃料？</t>
-  </si>
-  <si>
-    <t>铁矿石的港口库存情况（bloomberg上数据） 是否能对船价产生比较大的影响？</t>
+    <t>公司租船报价</t>
+  </si>
+  <si>
+    <t>成交价格</t>
+  </si>
+  <si>
+    <t>租船实际价格</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -134,12 +496,257 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -147,21 +754,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -210,7 +858,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -243,26 +891,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -295,23 +926,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,177 +1067,207 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E0B888-6486-EE45-A6AC-B34BB98E147D}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="66" style="4" customWidth="1"/>
-    <col min="5" max="5" width="54.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="42.8333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54.1666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="105" spans="3:5">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="30" spans="1:4">
+      <c r="A6" s="3">
+        <v>43444</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="8" ht="78.75" spans="1:4">
+      <c r="A8" s="3">
+        <v>43444</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
+    <row r="10" ht="31.5" spans="1:4">
+      <c r="A10" s="3">
+        <v>43444</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
+    <row r="12" ht="31.5" spans="1:4">
+      <c r="A12" s="3">
+        <v>43444</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="126" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
+    <row r="14" ht="31.5" spans="1:4">
+      <c r="A14" s="3">
+        <v>43444</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="16" ht="31.5" spans="1:4">
+      <c r="A16" s="3">
         <v>43444</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
         <v>43444</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>43444</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>43444</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>43444</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>43444</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBE94BB-5CFE-0C48-982C-F712A3DC614E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="49.33203125" customWidth="1"/>
+    <col min="2" max="2" width="49.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>